--- a/NewFramework/Testdata/LoginData.xlsx
+++ b/NewFramework/Testdata/LoginData.xlsx
@@ -19,12 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Admin</t>
   </si>
   <si>
     <t>demo123</t>
+  </si>
+  <si>
+    <t>mngr300880</t>
+  </si>
+  <si>
+    <t>yquzupE</t>
+  </si>
+  <si>
+    <t>demo124</t>
   </si>
 </sst>
 </file>
@@ -342,13 +351,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -356,6 +368,30 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
